--- a/biology/Médecine/Coordination_régionale_de_lutte_contre_le_virus_de_l'immunodéficience_humaine/Coordination_régionale_de_lutte_contre_le_virus_de_l'immunodéficience_humaine.xlsx
+++ b/biology/Médecine/Coordination_régionale_de_lutte_contre_le_virus_de_l'immunodéficience_humaine/Coordination_régionale_de_lutte_contre_le_virus_de_l'immunodéficience_humaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coordination_r%C3%A9gionale_de_lutte_contre_le_virus_de_l%27immunod%C3%A9ficience_humaine</t>
+          <t>Coordination_régionale_de_lutte_contre_le_virus_de_l'immunodéficience_humaine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, les COREVIH (COordination REgionale de lutte contre le Virus de l’Immunodéficience Humaine) sont des instances de coordination de lutte contre le sida, globalement à l'échelle des régions.
 Après plusieurs années de préparation, les COREVIH sont officiellement installés fin 2007. Ce qui les différencie des CISIH (Centre Hospitalier d’Information et de Soins de l’Immunodéficience Humaine) réside dans l'association de ses membres : des acteurs de la recherche et des soins, de la prévention et du dépistage, qu'ils travaillent au sein des hôpitaux ou à l'extérieur, des membres d'associations de malades et d'usagers du système de santé qui représentent au moins 20 % des membres.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coordination_r%C3%A9gionale_de_lutte_contre_le_virus_de_l%27immunod%C3%A9ficience_humaine</t>
+          <t>Coordination_régionale_de_lutte_contre_le_virus_de_l'immunodéficience_humaine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Législation relative aux COREVIH</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Décret relatif à la création des COREVIH du 15 novembre 2005
 Décret du 25 mars 2007, modifiant le décret n° 2005-1421 du 15 novembre 2005
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coordination_r%C3%A9gionale_de_lutte_contre_le_virus_de_l%27immunod%C3%A9ficience_humaine</t>
+          <t>Coordination_régionale_de_lutte_contre_le_virus_de_l'immunodéficience_humaine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les COREVIH sont composés de quatre collèges :
 Les représentants des établissements de santé, sociaux ou médico-sociaux
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Coordination_r%C3%A9gionale_de_lutte_contre_le_virus_de_l%27immunod%C3%A9ficience_humaine</t>
+          <t>Coordination_régionale_de_lutte_contre_le_virus_de_l'immunodéficience_humaine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les trois missions principales des COREVIH reprennent les recommandations du groupe d'experts réuni autour du Professeur Patrick Yéni en 2006 :
 Favoriser la coordination des professionnels du soin, de l'expertise clinique, paraclinique et thérapeutique, du dépistage, de la prévention et de l'éducation pour la santé, de la recherche clinique et épidémiologique, des actions de coopération internationale, de la formation et de l'information, de l'action sociale et médico-sociale, ainsi que des associations de malades ou d'usagers du système de santé ;
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Coordination_r%C3%A9gionale_de_lutte_contre_le_virus_de_l%27immunod%C3%A9ficience_humaine</t>
+          <t>Coordination_régionale_de_lutte_contre_le_virus_de_l'immunodéficience_humaine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,7 +635,9 @@
           <t>Les COREVIH sur le territoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">28 COREVIH maillent désormais le territoire national dont 4 pour les départements d'Outre-Mer. Un COREVIH ne recouvre pas forcément une région.
 La région Provence-Alpes-Côte d'Azur se distingue par la création de deux COREVIH calqués sur les territoires des CISIH :
